--- a/medicine/Enfance/Donna_Morrissey/Donna_Morrissey.xlsx
+++ b/medicine/Enfance/Donna_Morrissey/Donna_Morrissey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donna Morrissey, née le 13 janvier 1956 à The Beaches, au Canada, est une femme de lettres canadienne, autrice de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Donna Morrissey fait des études à l'Université Memorial de Terre-Neuve où elle obtient un baccalauréat en travail social et un diplôme en éducation des adultes. 
 En 1999, elle publie son premier roman, Kit’s Law pour lequel elle est lauréate du Winifred Holtby Memorial Prize 2000 et du prix Alex 2002. Avec Downhill Chance, paru en 2002, elle remporte le Thomas Head Raddall Award (en) 2003. Récompense qu'elle reçoit à nouveau en 2006 avec Sylvanus Now et en 2017 avec The Fortunate Brother. Pour ce roman, elle est lauréate du prix Arthur-Ellis 2017 du meilleur roman.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Kit’s Law. 1999
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kit’s Law. 1999
 (de) Trad. Marlies Ruß: Eisblumen. Diana, Munich 2001
 Downhill Chance. 2002
 Sylvanus Now. 2004
@@ -554,11 +573,7 @@
 What They Wanted. 2008
 (de) Trad. Miriam Mandelkow: Leuchtfeuer. 2012
 The Deception of Livvy Higgs. 2012
-The Fortunate Brother. 2016
-Littérature d'enfance et de jeunesse
-Cross Katie Kross (2012)
-Scénario
-Clothesline Patch (2000), court métrage canadien</t>
+The Fortunate Brother. 2016</t>
         </is>
       </c>
     </row>
@@ -583,19 +598,96 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cross Katie Kross (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Donna_Morrissey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donna_Morrissey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clothesline Patch (2000), court métrage canadien</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Donna_Morrissey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donna_Morrissey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Winifred Holtby Memorial Prize 2000 pour Kit's Law
-Prix Alex 2002 pour Kit's Law[1]
-Prix Gemini Best Short Dramatic Program 2002 pour Clothesline Patch[2]
-Thomas Head Raddall Award (en) 2003 pour Downhill Chance[3]
-Thomas Head Raddall Award 2006 pour Sylvanus Now[3]
-Thomas Head Raddall Award 2017 pour The Fortunate Brother[4]
-Prix Arthur-Ellis 2017 du meilleur roman pour The Fortunate Brother[5]</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Winifred Holtby Memorial Prize 2000 pour Kit's Law
+Prix Alex 2002 pour Kit's Law
+Prix Gemini Best Short Dramatic Program 2002 pour Clothesline Patch
+Thomas Head Raddall Award (en) 2003 pour Downhill Chance
+Thomas Head Raddall Award 2006 pour Sylvanus Now
+Thomas Head Raddall Award 2017 pour The Fortunate Brother
+Prix Arthur-Ellis 2017 du meilleur roman pour The Fortunate Brother</t>
         </is>
       </c>
     </row>
